--- a/Paolo/Scripts/Fechas/Fecha_2023.xlsx
+++ b/Paolo/Scripts/Fechas/Fecha_2023.xlsx
@@ -15,7 +15,7 @@
     <sheet name="2023" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023'!$A$1:$D$93</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -120,9 +120,6 @@
     <t>01808-2023-OEFA/DFAI-SSAG</t>
   </si>
   <si>
-    <t>000228-2023-OEFA/DFAI-SSAG</t>
-  </si>
-  <si>
     <t>001169-2023-OEFA/DFAI-SSAG</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Fecha_Informe</t>
+  </si>
+  <si>
+    <t>0228-2023-OEFA/DFAI-SSAG</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2">
         <v>45076</v>
@@ -1042,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2">
         <v>44957</v>
@@ -1053,7 +1053,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2">
         <v>45042</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>44939</v>
@@ -1075,7 +1075,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>44957</v>
@@ -1086,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2">
         <v>45015</v>
@@ -1097,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>45105</v>
@@ -1108,7 +1108,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2">
         <v>45159</v>
@@ -1119,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
         <v>45166</v>
@@ -1130,7 +1130,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>45184</v>
@@ -1141,13 +1141,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
         <v>45197</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <v>45198</v>
@@ -1166,7 +1166,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2">
         <v>45197</v>
@@ -1177,7 +1177,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2">
         <v>45218</v>
@@ -1188,7 +1188,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
         <v>45222</v>
@@ -1199,7 +1199,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2">
         <v>45223</v>
@@ -1210,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2">
         <v>45226</v>
@@ -1221,7 +1221,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
         <v>45229</v>
@@ -1232,7 +1232,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2">
         <v>45229</v>
@@ -1243,7 +1243,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2">
         <v>45229</v>
@@ -1254,7 +1254,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2">
         <v>45230</v>
@@ -1265,7 +1265,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2">
         <v>45230</v>
@@ -1276,7 +1276,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C54" s="2">
         <v>45243</v>
@@ -1287,7 +1287,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2">
         <v>45244</v>
@@ -1298,7 +1298,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2">
         <v>45247</v>
@@ -1309,7 +1309,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="2">
         <v>45247</v>
@@ -1320,7 +1320,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2">
         <v>45250</v>
@@ -1331,7 +1331,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2">
         <v>45254</v>
@@ -1342,7 +1342,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="2">
         <v>45254</v>
@@ -1353,7 +1353,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="2">
         <v>45254</v>
@@ -1364,7 +1364,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2">
         <v>45257</v>
@@ -1375,7 +1375,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="2">
         <v>45257</v>
@@ -1386,7 +1386,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="2">
         <v>45259</v>
@@ -1397,7 +1397,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" s="2">
         <v>45260</v>
@@ -1408,7 +1408,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="2">
         <v>45260</v>
@@ -1419,7 +1419,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2">
         <v>45260</v>
@@ -1430,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" s="2">
         <v>45260</v>
@@ -1441,7 +1441,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2">
         <v>45266</v>
@@ -1452,7 +1452,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70" s="2">
         <v>45271</v>
@@ -1463,7 +1463,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71" s="2">
         <v>45272</v>
@@ -1474,7 +1474,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="2">
         <v>45272</v>
@@ -1485,7 +1485,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2">
         <v>45090</v>
@@ -1496,7 +1496,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="2">
         <v>45091</v>
@@ -1507,7 +1507,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="2">
         <v>45093</v>
@@ -1518,7 +1518,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2">
         <v>45093</v>
@@ -1529,7 +1529,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2">
         <v>45099</v>
@@ -1540,7 +1540,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2">
         <v>45099</v>
@@ -1551,7 +1551,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2">
         <v>45099</v>
@@ -1562,7 +1562,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2">
         <v>45099</v>
@@ -1573,7 +1573,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2">
         <v>45100</v>
@@ -1584,7 +1584,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="2">
         <v>45103</v>
@@ -1595,7 +1595,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="2">
         <v>45103</v>
@@ -1606,7 +1606,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2">
         <v>45104</v>
@@ -1617,7 +1617,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2">
         <v>45105</v>
@@ -1628,7 +1628,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="2">
         <v>45105</v>
@@ -1639,7 +1639,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="2">
         <v>45105</v>
@@ -1650,7 +1650,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="2">
         <v>45113</v>
@@ -1661,7 +1661,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2">
         <v>45132</v>
@@ -1672,7 +1672,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2">
         <v>44985</v>
@@ -1683,7 +1683,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="2">
         <v>44993</v>
@@ -1694,7 +1694,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2">
         <v>45043</v>
@@ -1705,14 +1705,14 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2">
         <v>45076</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D93"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
